--- a/Raw/ACmm.xlsx
+++ b/Raw/ACmm.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Fine experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46425575-2375-4EC1-AB12-FC82103D5666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B440D196-54D8-4E31-BE3E-4590EAF56816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65BE6241-862A-47F4-805E-98DCA4CCB52C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{65BE6241-862A-47F4-805E-98DCA4CCB52C}"/>
   </bookViews>
   <sheets>
     <sheet name="ACmm 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>T</t>
   </si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>pH 8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info </t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,13 +119,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -436,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7D1364-5AAE-4F0F-9B6A-7D8BADF1B4E0}">
-  <dimension ref="A1:R302"/>
+  <dimension ref="A1:S302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="I302" sqref="I243:I302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +490,43 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE($K1,B1)</f>
+        <v>Info pH 5.0</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" ref="M1:S1" si="0">CONCATENATE($K1,C1)</f>
+        <v>Info pH 5.5</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.0</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.5</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.5</v>
+      </c>
+      <c r="R1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.0</v>
+      </c>
+      <c r="S1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -501,29 +554,8 @@
       <c r="I2">
         <v>28869.421875</v>
       </c>
-      <c r="L2">
-        <v>28848.35546875</v>
-      </c>
-      <c r="M2">
-        <v>23199.96484375</v>
-      </c>
-      <c r="N2">
-        <v>23484.1328125</v>
-      </c>
-      <c r="O2">
-        <v>26173.970703125</v>
-      </c>
-      <c r="P2">
-        <v>23904.5234375</v>
-      </c>
-      <c r="Q2">
-        <v>24906.84765625</v>
-      </c>
-      <c r="R2">
-        <v>28869.421875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -551,29 +583,8 @@
       <c r="I3">
         <v>28698.091796875</v>
       </c>
-      <c r="L3">
-        <v>28549.78125</v>
-      </c>
-      <c r="M3">
-        <v>23401.765625</v>
-      </c>
-      <c r="N3">
-        <v>23878.50390625</v>
-      </c>
-      <c r="O3">
-        <v>25947.470703125</v>
-      </c>
-      <c r="P3">
-        <v>23142.125</v>
-      </c>
-      <c r="Q3">
-        <v>24826.958984375</v>
-      </c>
-      <c r="R3">
-        <v>28698.091796875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -602,28 +613,31 @@
         <v>28973.96875</v>
       </c>
       <c r="L4">
-        <v>28517.0625</v>
+        <v>-3.1721201750000004E-2</v>
       </c>
       <c r="M4">
-        <v>22725.01171875</v>
+        <v>-3.1694010500000001E-2</v>
       </c>
       <c r="N4">
-        <v>23698.474609375</v>
+        <v>-2.9934073500000002E-2</v>
       </c>
       <c r="O4">
-        <v>25308.263671875</v>
+        <v>-3.1624968125E-2</v>
       </c>
       <c r="P4">
-        <v>23190.763671875</v>
+        <v>-2.845498825E-2</v>
       </c>
       <c r="Q4">
-        <v>24490.958984375</v>
+        <v>-2.7900707124999997E-2</v>
       </c>
       <c r="R4">
-        <v>28973.96875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-2.4962796374999999E-2</v>
+      </c>
+      <c r="S4">
+        <v>-2.5240118857142856E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -651,29 +665,8 @@
       <c r="I5">
         <v>28735.37890625</v>
       </c>
-      <c r="L5">
-        <v>28108.15625</v>
-      </c>
-      <c r="M5">
-        <v>22931.9765625</v>
-      </c>
-      <c r="N5">
-        <v>23345.724609375</v>
-      </c>
-      <c r="O5">
-        <v>25569.396484375</v>
-      </c>
-      <c r="P5">
-        <v>23186.162109375</v>
-      </c>
-      <c r="Q5">
-        <v>24815.044921875</v>
-      </c>
-      <c r="R5">
-        <v>28735.37890625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -702,28 +695,31 @@
         <v>28315.41796875</v>
       </c>
       <c r="L6">
-        <v>28221.0625</v>
+        <v>12.94157146875</v>
       </c>
       <c r="M6">
-        <v>23194.59765625</v>
+        <v>13.093469957142858</v>
       </c>
       <c r="N6">
-        <v>22903.53125</v>
+        <v>12.867688251250001</v>
       </c>
       <c r="O6">
-        <v>24991.849609375</v>
+        <v>13.15140494125</v>
       </c>
       <c r="P6">
-        <v>22930.505859375</v>
+        <v>12.995899881249999</v>
       </c>
       <c r="Q6">
-        <v>24865.62890625</v>
+        <v>12.808208632500001</v>
       </c>
       <c r="R6">
-        <v>28315.41796875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12.581833996249999</v>
+      </c>
+      <c r="S6">
+        <v>12.550418217142859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -751,29 +747,8 @@
       <c r="I7">
         <v>28117.97265625</v>
       </c>
-      <c r="L7">
-        <v>28064.2109375</v>
-      </c>
-      <c r="M7">
-        <v>22521.05078125</v>
-      </c>
-      <c r="N7">
-        <v>22906.375</v>
-      </c>
-      <c r="O7">
-        <v>25080.26171875</v>
-      </c>
-      <c r="P7">
-        <v>22869.400390625</v>
-      </c>
-      <c r="Q7">
-        <v>24056.13671875</v>
-      </c>
-      <c r="R7">
-        <v>28117.97265625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -801,29 +776,8 @@
       <c r="I8">
         <v>28013.5078125</v>
       </c>
-      <c r="L8">
-        <v>27758.53515625</v>
-      </c>
-      <c r="M8">
-        <v>22391.0390625</v>
-      </c>
-      <c r="N8">
-        <v>23287.408203125</v>
-      </c>
-      <c r="O8">
-        <v>25035.48046875</v>
-      </c>
-      <c r="P8">
-        <v>22708.095703125</v>
-      </c>
-      <c r="Q8">
-        <v>24681.763671875</v>
-      </c>
-      <c r="R8">
-        <v>28013.5078125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -851,29 +805,8 @@
       <c r="I9">
         <v>28207.24609375</v>
       </c>
-      <c r="L9">
-        <v>27873.078125</v>
-      </c>
-      <c r="M9">
-        <v>22425.9375</v>
-      </c>
-      <c r="N9">
-        <v>22788.201171875</v>
-      </c>
-      <c r="O9">
-        <v>24760.787109375</v>
-      </c>
-      <c r="P9">
-        <v>22680.740234375</v>
-      </c>
-      <c r="Q9">
-        <v>23965.568359375</v>
-      </c>
-      <c r="R9">
-        <v>28207.24609375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -923,7 +856,7 @@
         <v>28253.134765625</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -973,7 +906,7 @@
         <v>28000.83984375</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1023,7 +956,7 @@
         <v>28154.14453125</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -1073,7 +1006,7 @@
         <v>27775.71875</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -1123,7 +1056,7 @@
         <v>27193.74609375</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -1173,7 +1106,7 @@
         <v>27511.36328125</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -12146,7 +12079,7 @@
         <v>45856.42578125</v>
       </c>
       <c r="H235">
-        <f t="shared" ref="H235:H298" si="0">Q235-(Q235-(0.0367751568635576*$A235-0.363863210852243)*EXP(12.70776)*EXP($A235*-0.037194))</f>
+        <f t="shared" ref="H235:H298" si="1">Q235-(Q235-(0.0367751568635576*$A235-0.363863210852243)*EXP(12.70776)*EXP($A235*-0.037194))</f>
         <v>48701.841584441674</v>
       </c>
       <c r="I235">
@@ -12197,7 +12130,7 @@
         <v>45743.8515625</v>
       </c>
       <c r="H236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48383.701224319128</v>
       </c>
       <c r="I236">
@@ -12248,7 +12181,7 @@
         <v>45849.71484375</v>
       </c>
       <c r="H237">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48066.624725904585</v>
       </c>
       <c r="I237">
@@ -12299,7 +12232,7 @@
         <v>45813.2109375</v>
       </c>
       <c r="H238">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47750.62765068595</v>
       </c>
       <c r="I238">
@@ -12350,7 +12283,7 @@
         <v>44987.13671875</v>
       </c>
       <c r="H239">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47435.725083816811</v>
       </c>
       <c r="I239">
@@ -12401,7 +12334,7 @@
         <v>44964.75</v>
       </c>
       <c r="H240">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47121.931642771568</v>
       </c>
       <c r="I240">
@@ -12452,7 +12385,7 @@
         <v>44375.8046875</v>
       </c>
       <c r="H241">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46809.261485866802</v>
       </c>
       <c r="I241">
@@ -12503,7 +12436,7 @@
         <v>43941.4375</v>
       </c>
       <c r="H242">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46497.728320651499</v>
       </c>
       <c r="I242">
@@ -12554,11 +12487,11 @@
         <v>43843.32421875</v>
       </c>
       <c r="H243">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46187.34541216716</v>
       </c>
       <c r="I243">
-        <f t="shared" ref="I243:I301" si="1">R243-(R243-(0.0492520730825131*$A243-1.0489884661945)*EXP(12.70776)*EXP($A243*-0.037194))</f>
+        <f t="shared" ref="I243:I301" si="2">R243-(R243-(0.0492520730825131*$A243-1.0489884661945)*EXP(12.70776)*EXP($A243*-0.037194))</f>
         <v>51392.160828482956</v>
       </c>
       <c r="L243">
@@ -12606,11 +12539,11 @@
         <v>43148.56640625</v>
       </c>
       <c r="H244">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45878.125591080563</v>
       </c>
       <c r="I244">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51094.156491084883</v>
       </c>
       <c r="L244">
@@ -12658,11 +12591,11 @@
         <v>43020.66015625</v>
       </c>
       <c r="H245">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45570.081261690117</v>
       </c>
       <c r="I245">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50796.437903587561</v>
       </c>
       <c r="L245">
@@ -12710,11 +12643,11 @@
         <v>42999.87890625</v>
       </c>
       <c r="H246">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45263.224409808332</v>
       </c>
       <c r="I246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50499.035416362123</v>
       </c>
       <c r="L246">
@@ -12762,11 +12695,11 @@
         <v>42287.0859375</v>
       </c>
       <c r="H247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44957.56661052171</v>
       </c>
       <c r="I247">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50201.978671050565</v>
       </c>
       <c r="L247">
@@ -12814,11 +12747,11 @@
         <v>41867.71484375</v>
       </c>
       <c r="H248">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44653.119035829848</v>
       </c>
       <c r="I248">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49905.296612556915</v>
       </c>
       <c r="L248">
@@ -12866,11 +12799,11 @@
         <v>41685.41796875</v>
       </c>
       <c r="H249">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44349.892462165903</v>
       </c>
       <c r="I249">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49609.017500860216</v>
       </c>
       <c r="L249">
@@ -12918,11 +12851,11 @@
         <v>41716.48828125</v>
       </c>
       <c r="H250">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44047.897277799369</v>
       </c>
       <c r="I250">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49313.168922650468</v>
       </c>
       <c r="L250">
@@ -12970,11 +12903,11 @@
         <v>41426.0703125</v>
       </c>
       <c r="H251">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43747.143490123664</v>
       </c>
       <c r="I251">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49017.777802791228</v>
       </c>
       <c r="L251">
@@ -13022,11 +12955,11 @@
         <v>40950.30859375</v>
       </c>
       <c r="H252">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43447.640732829546</v>
       </c>
       <c r="I252">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48722.870415610312</v>
       </c>
       <c r="L252">
@@ -13074,11 +13007,11 @@
         <v>40603.80078125</v>
       </c>
       <c r="H253">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43149.398272966297</v>
       </c>
       <c r="I253">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48428.472396021694</v>
       </c>
       <c r="L253">
@@ -13126,11 +13059,11 @@
         <v>39605.6640625</v>
       </c>
       <c r="H254">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42852.425017892172</v>
       </c>
       <c r="I254">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48134.608750480482</v>
       </c>
       <c r="L254">
@@ -13178,11 +13111,11 @@
         <v>39935.3671875</v>
       </c>
       <c r="H255">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42556.729522115871</v>
       </c>
       <c r="I255">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47841.303867773728</v>
       </c>
       <c r="L255">
@@ -13230,11 +13163,11 @@
         <v>39441.58203125</v>
       </c>
       <c r="H256">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42262.319994030266</v>
       </c>
       <c r="I256">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47548.581529648829</v>
       </c>
       <c r="L256">
@@ -13282,11 +13215,11 @@
         <v>38684.63671875</v>
       </c>
       <c r="H257">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41969.204302540427</v>
       </c>
       <c r="I257">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47256.46492128251</v>
       </c>
       <c r="L257">
@@ -13334,11 +13267,11 @@
         <v>38913.328125</v>
       </c>
       <c r="H258">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41677.389983586778</v>
       </c>
       <c r="I258">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46964.976641591806</v>
       </c>
       <c r="L258">
@@ -13386,11 +13319,11 @@
         <v>38279.3984375</v>
       </c>
       <c r="H259">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41386.884246565685</v>
       </c>
       <c r="I259">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46674.138713390021</v>
       </c>
       <c r="L259">
@@ -13438,11 +13371,11 @@
         <v>37996.91015625</v>
       </c>
       <c r="H260">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41097.693980648241</v>
       </c>
       <c r="I260">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46383.97259338919</v>
       </c>
       <c r="L260">
@@ -13490,11 +13423,11 @@
         <v>37647.07421875</v>
       </c>
       <c r="H261">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40809.825760999287</v>
       </c>
       <c r="I261">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46094.499182051732</v>
       </c>
       <c r="L261">
@@ -13543,11 +13476,11 @@
         <v>36914.515625</v>
       </c>
       <c r="H262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40523.285854897687</v>
       </c>
       <c r="I262">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45805.738833293151</v>
       </c>
       <c r="K262">
@@ -13580,7 +13513,7 @@
         <v>83.3</v>
       </c>
       <c r="B263">
-        <f t="shared" ref="B263:B302" si="2">K263-(K263-(0.0136086104618843*$A263+1.02617437975982)*EXP(12.70776)*EXP($A263*-0.037194))</f>
+        <f t="shared" ref="B263:B301" si="3">K263-(K263-(0.0136086104618843*$A263+1.02617437975982)*EXP(12.70776)*EXP($A263*-0.037194))</f>
         <v>32192.934752298996</v>
       </c>
       <c r="C263">
@@ -13599,11 +13532,11 @@
         <v>36966.9296875</v>
       </c>
       <c r="H263">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40238.080227759317</v>
       </c>
       <c r="I263">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45517.711364037568</v>
       </c>
       <c r="K263">
@@ -13636,7 +13569,7 @@
         <v>83.6</v>
       </c>
       <c r="B264">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31895.894777331749</v>
       </c>
       <c r="C264">
@@ -13655,11 +13588,11 @@
         <v>36295.59375</v>
       </c>
       <c r="H264">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39954.214549064738</v>
       </c>
       <c r="I264">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45230.436063629051</v>
       </c>
       <c r="K264">
@@ -13692,7 +13625,7 @@
         <v>83.899999999999991</v>
       </c>
       <c r="B265">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31601.483058770886</v>
       </c>
       <c r="C265">
@@ -13711,11 +13644,11 @@
         <v>36397.26953125</v>
       </c>
       <c r="H265">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39671.694198191923</v>
       </c>
       <c r="I265">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44943.931703099661</v>
       </c>
       <c r="K265">
@@ -13748,7 +13681,7 @@
         <v>84.2</v>
       </c>
       <c r="B266">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31309.677842511108</v>
       </c>
       <c r="C266">
@@ -13767,11 +13700,11 @@
         <v>35736.52734375</v>
       </c>
       <c r="H266">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39390.524270156486</v>
       </c>
       <c r="I266">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44658.216544297167</v>
       </c>
       <c r="K266">
@@ -13804,7 +13737,7 @@
         <v>84.5</v>
       </c>
       <c r="B267">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31020.457533617475</v>
       </c>
       <c r="C267">
@@ -13823,11 +13756,11 @@
         <v>35408.0390625</v>
       </c>
       <c r="H267">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39110.709581259871</v>
       </c>
       <c r="I267">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44373.308348873783</v>
       </c>
       <c r="K267">
@@ -13860,7 +13793,7 @@
         <v>84.8</v>
       </c>
       <c r="B268">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30733.800695471487</v>
       </c>
       <c r="C268">
@@ -13879,11 +13812,11 @@
         <v>35119.98828125</v>
       </c>
       <c r="H268">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38832.25467464744</v>
       </c>
       <c r="I268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44089.224387138216</v>
       </c>
       <c r="K268">
@@ -13916,7 +13849,7 @@
         <v>85.1</v>
       </c>
       <c r="B269">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30449.686048916537</v>
       </c>
       <c r="C269">
@@ -13935,11 +13868,11 @@
         <v>34839.6015625</v>
       </c>
       <c r="H269">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38555.163825777352</v>
       </c>
       <c r="I269">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43805.981446772792</v>
       </c>
       <c r="K269">
@@ -13972,7 +13905,7 @@
         <v>85.399999999999991</v>
       </c>
       <c r="B270">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30168.092471402921</v>
       </c>
       <c r="C270">
@@ -13991,11 +13924,11 @@
         <v>34669.73046875</v>
       </c>
       <c r="H270">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38279.441047801913</v>
       </c>
       <c r="I270">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43523.595841417766</v>
       </c>
       <c r="K270">
@@ -14028,7 +13961,7 @@
         <v>85.7</v>
       </c>
       <c r="B271">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29888.998996132239</v>
       </c>
       <c r="C271">
@@ -14047,11 +13980,11 @@
         <v>34200.0078125</v>
       </c>
       <c r="H271">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38005.090096862201</v>
       </c>
       <c r="I271">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43242.083419124261</v>
       </c>
       <c r="K271">
@@ -14084,7 +14017,7 @@
         <v>86</v>
       </c>
       <c r="B272">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29612.384811201806</v>
       </c>
       <c r="C272">
@@ -14103,11 +14036,11 @@
         <v>33793.125</v>
       </c>
       <c r="H272">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37732.114477297808</v>
       </c>
       <c r="I272">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42961.459570678424</v>
       </c>
       <c r="K272">
@@ -14140,7 +14073,7 @@
         <v>86.3</v>
       </c>
       <c r="B273">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29338.229258748466</v>
       </c>
       <c r="C273">
@@ -14159,11 +14092,11 @@
         <v>33443.86328125</v>
       </c>
       <c r="H273">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37460.517446772254</v>
       </c>
       <c r="I273">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42681.739237797665</v>
       </c>
       <c r="K273">
@@ -14196,7 +14129,7 @@
         <v>86.6</v>
       </c>
       <c r="B274">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29066.511834092787</v>
       </c>
       <c r="C274">
@@ -14215,11 +14148,11 @@
         <v>33275.53125</v>
       </c>
       <c r="H274">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37190.302021315962</v>
       </c>
       <c r="I274">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42402.936921201719</v>
       </c>
       <c r="K274">
@@ -14252,7 +14185,7 @@
         <v>86.899999999999991</v>
       </c>
       <c r="B275">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28797.212184882846</v>
       </c>
       <c r="C275">
@@ -14271,11 +14204,11 @@
         <v>33477.6640625</v>
       </c>
       <c r="H275">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36921.470980287508</v>
       </c>
       <c r="I275">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42125.066688559651</v>
       </c>
       <c r="K275">
@@ -14308,7 +14241,7 @@
         <v>87.2</v>
       </c>
       <c r="B276">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28530.310110238544</v>
       </c>
       <c r="C276">
@@ -14327,11 +14260,11 @@
         <v>32501.189453125</v>
       </c>
       <c r="H276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36654.026871254588</v>
       </c>
       <c r="I276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41848.142182314914</v>
       </c>
       <c r="K276">
@@ -14364,7 +14297,7 @@
         <v>87.5</v>
       </c>
       <c r="B277">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28265.78555989587</v>
       </c>
       <c r="C277">
@@ -14383,11 +14316,11 @@
         <v>32554.341796875</v>
       </c>
       <c r="H277">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36387.972014795829</v>
       </c>
       <c r="I277">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41572.176627390007</v>
       </c>
       <c r="K277">
@@ -14420,7 +14353,7 @@
         <v>87.8</v>
       </c>
       <c r="B278">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28003.618633351631</v>
       </c>
       <c r="C278">
@@ -14439,11 +14372,11 @@
         <v>32427.150390625</v>
       </c>
       <c r="H278">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36123.308509224466</v>
       </c>
       <c r="I278">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41297.182838772445</v>
       </c>
       <c r="K278">
@@ -14476,7 +14409,7 @@
         <v>88.1</v>
       </c>
       <c r="B279">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27743.789579008644</v>
       </c>
       <c r="C279">
@@ -14495,11 +14428,11 @@
         <v>31331.369140625</v>
       </c>
       <c r="H279">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35860.038235235312</v>
       </c>
       <c r="I279">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41023.173228984044</v>
       </c>
       <c r="K279">
@@ -14532,7 +14465,7 @@
         <v>88.399999999999991</v>
       </c>
       <c r="B280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27486.278793321311</v>
       </c>
       <c r="C280">
@@ -14551,11 +14484,11 @@
         <v>31124.33984375</v>
       </c>
       <c r="H280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35598.16286047575</v>
       </c>
       <c r="I280">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40750.15981543449</v>
       </c>
       <c r="K280">
@@ -14588,7 +14521,7 @@
         <v>88.7</v>
       </c>
       <c r="B281">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27231.066819942054</v>
       </c>
       <c r="C281">
@@ -14607,11 +14540,11 @@
         <v>31068.2421875</v>
       </c>
       <c r="H281">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35337.683844042323</v>
       </c>
       <c r="I281">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40478.154227661733</v>
       </c>
       <c r="K281">
@@ -14644,7 +14577,7 @@
         <v>89</v>
       </c>
       <c r="B282">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26978.134348868254</v>
       </c>
       <c r="C282">
@@ -14663,11 +14596,11 @@
         <v>30645.11328125</v>
       </c>
       <c r="H282">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35078.602440903553</v>
       </c>
       <c r="I282">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40207.167714460011</v>
       </c>
       <c r="K282">
@@ -14700,7 +14633,7 @@
         <v>89.3</v>
       </c>
       <c r="B283">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26727.462215590091</v>
       </c>
       <c r="C283">
@@ -14719,11 +14652,11 @@
         <v>30153.201171875</v>
       </c>
       <c r="H283">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34820.919706250395</v>
       </c>
       <c r="I283">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39937.211150897616</v>
       </c>
       <c r="K283">
@@ -14756,7 +14689,7 @@
         <v>89.6</v>
       </c>
       <c r="B284">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26479.031400239248</v>
       </c>
       <c r="C284">
@@ -14775,11 +14708,11 @@
         <v>30320.876953125</v>
       </c>
       <c r="H284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34564.636499775253</v>
       </c>
       <c r="I284">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39668.295045225655</v>
       </c>
       <c r="K284">
@@ -14812,7 +14745,7 @@
         <v>89.899999999999991</v>
       </c>
       <c r="B285">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26232.823026738668</v>
       </c>
       <c r="C285">
@@ -14831,11 +14764,11 @@
         <v>29473.591796875</v>
       </c>
       <c r="H285">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34309.753489880655</v>
       </c>
       <c r="I285">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39400.429545679763</v>
       </c>
       <c r="K285">
@@ -14868,7 +14801,7 @@
         <v>90.2</v>
       </c>
       <c r="B286">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25988.818361953221</v>
       </c>
       <c r="C286">
@@ -14887,11 +14820,11 @@
         <v>29665.373046875</v>
       </c>
       <c r="H286">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34056.271157818504</v>
       </c>
       <c r="I286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39133.624447175614</v>
       </c>
       <c r="K286">
@@ -14924,7 +14857,7 @@
         <v>90.5</v>
       </c>
       <c r="B287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25746.998814841714</v>
       </c>
       <c r="C287">
@@ -14943,11 +14876,11 @@
         <v>29551.87890625</v>
       </c>
       <c r="H287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33804.189801761248</v>
       </c>
       <c r="I287">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38867.889197900724</v>
       </c>
       <c r="K287">
@@ -14980,7 +14913,7 @@
         <v>90.8</v>
       </c>
       <c r="B288">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25507.345935609908</v>
       </c>
       <c r="C288">
@@ -14999,11 +14932,11 @@
         <v>29036.486328125</v>
       </c>
       <c r="H288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33553.50954080536</v>
       </c>
       <c r="I288">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38603.23290580287</v>
       </c>
       <c r="K288">
@@ -15036,7 +14969,7 @@
         <v>91.1</v>
       </c>
       <c r="B289">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25269.841414865019</v>
       </c>
       <c r="C289">
@@ -15055,11 +14988,11 @@
         <v>28735.830078125</v>
       </c>
       <c r="H289">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33304.230318909009</v>
       </c>
       <c r="I289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38339.66434497774</v>
       </c>
       <c r="K289">
@@ -15092,7 +15025,7 @@
         <v>91.399999999999991</v>
       </c>
       <c r="B290">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25034.467082771444</v>
       </c>
       <c r="C290">
@@ -15111,11 +15044,11 @@
         <v>28926.775390625</v>
       </c>
       <c r="H290">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33056.351908763841</v>
       </c>
       <c r="I290">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38077.19196195629</v>
       </c>
       <c r="K290">
@@ -15148,7 +15081,7 @@
         <v>91.7</v>
       </c>
       <c r="B291">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24801.204908208067</v>
       </c>
       <c r="C291">
@@ -15167,11 +15100,11 @@
         <v>28168.080078125</v>
       </c>
       <c r="H291">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32809.873915602962</v>
       </c>
       <c r="I291">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37815.823881894008</v>
       </c>
       <c r="K291">
@@ -15204,7 +15137,7 @@
         <v>92</v>
       </c>
       <c r="B292">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24570.036997927025</v>
       </c>
       <c r="C292">
@@ -15223,11 +15156,11 @@
         <v>27880.373046875</v>
       </c>
       <c r="H292">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32564.795780945071</v>
       </c>
       <c r="I292">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37555.567914662977</v>
       </c>
       <c r="K292">
@@ -15260,7 +15193,7 @@
         <v>92.3</v>
       </c>
       <c r="B293">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24340.945595713969</v>
       </c>
       <c r="C293">
@@ -15279,11 +15212,11 @@
         <v>27528.0390625</v>
       </c>
       <c r="H293">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32321.116786276263</v>
       </c>
       <c r="I293">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37296.431560848258</v>
       </c>
       <c r="K293">
@@ -15316,7 +15249,7 @@
         <v>92.6</v>
       </c>
       <c r="B294">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24113.913081550203</v>
       </c>
       <c r="C294">
@@ -15335,11 +15268,11 @@
         <v>27965.73046875</v>
       </c>
       <c r="H294">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32078.83605667037</v>
       </c>
       <c r="I294">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37038.422017650235</v>
       </c>
       <c r="K294">
@@ -15372,7 +15305,7 @@
         <v>92.899999999999991</v>
       </c>
       <c r="B295">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23888.921970776286</v>
       </c>
       <c r="C295">
@@ -15391,11 +15324,11 @@
         <v>27520.166015625</v>
       </c>
       <c r="H295">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31837.95256434851</v>
       </c>
       <c r="I295">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36781.546184693798</v>
       </c>
       <c r="K295">
@@ -15428,7 +15361,7 @@
         <v>93.2</v>
       </c>
       <c r="B296">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23665.954913257694</v>
       </c>
       <c r="C296">
@@ -15447,11 +15380,11 @@
         <v>27439.201171875</v>
       </c>
       <c r="H296">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31598.465132179062</v>
       </c>
       <c r="I296">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36525.810669746228</v>
       </c>
       <c r="K296">
@@ -15484,7 +15417,7 @@
         <v>93.5</v>
       </c>
       <c r="B297">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23444.994692552104</v>
       </c>
       <c r="C297">
@@ -15503,11 +15436,11 @@
         <v>26917.423828125</v>
       </c>
       <c r="H297">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31360.372437118622</v>
       </c>
       <c r="I297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36271.221794344565</v>
       </c>
       <c r="K297">
@@ -15540,7 +15473,7 @@
         <v>93.8</v>
       </c>
       <c r="B298">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23226.02422507872</v>
       </c>
       <c r="C298">
@@ -15559,11 +15492,11 @@
         <v>26559.09375</v>
       </c>
       <c r="H298">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31123.673013595107</v>
       </c>
       <c r="I298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36017.785599334238</v>
       </c>
       <c r="K298">
@@ -15596,7 +15529,7 @@
         <v>94.1</v>
       </c>
       <c r="B299">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23009.026559289512</v>
       </c>
       <c r="C299">
@@ -15615,11 +15548,11 @@
         <v>26524.166015625</v>
       </c>
       <c r="H299">
-        <f t="shared" ref="H299:H301" si="3">Q299-(Q299-(0.0367751568635576*$A299-0.363863210852243)*EXP(12.70776)*EXP($A299*-0.037194))</f>
+        <f t="shared" ref="H299:H301" si="4">Q299-(Q299-(0.0367751568635576*$A299-0.363863210852243)*EXP(12.70776)*EXP($A299*-0.037194))</f>
         <v>30888.365256833647</v>
       </c>
       <c r="I299">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35765.507850319809</v>
       </c>
       <c r="K299">
@@ -15652,7 +15585,7 @@
         <v>94.399999999999991</v>
       </c>
       <c r="B300">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22793.984874842579</v>
       </c>
       <c r="C300">
@@ -15671,11 +15604,11 @@
         <v>25916.689453125</v>
       </c>
       <c r="H300">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30654.447426126382</v>
       </c>
       <c r="I300">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35514.394043029621</v>
       </c>
       <c r="K300">
@@ -15708,7 +15641,7 @@
         <v>94.7</v>
       </c>
       <c r="B301">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22580.882481777458</v>
       </c>
       <c r="C301">
@@ -15727,11 +15660,11 @@
         <v>25922.876953125</v>
       </c>
       <c r="H301">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30421.917648046579</v>
       </c>
       <c r="I301">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35264.449408594912</v>
       </c>
       <c r="K301">
@@ -15813,6 +15746,937 @@
       </c>
       <c r="R302">
         <v>35954.09765625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CF1FEB-BF0B-400D-A357-136D6540A085}">
+  <dimension ref="B2:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>-3.1047208024932799E-2</v>
+      </c>
+      <c r="C2">
+        <v>-3.0568703179830101E-2</v>
+      </c>
+      <c r="D2">
+        <v>-3.1349189046256297E-2</v>
+      </c>
+      <c r="E2">
+        <v>-3.18760449115187E-2</v>
+      </c>
+      <c r="F2">
+        <v>-3.0968246682876899E-2</v>
+      </c>
+      <c r="G2">
+        <v>-3.1234496132091599E-2</v>
+      </c>
+      <c r="H2">
+        <v>-2.4283229793940202E-2</v>
+      </c>
+      <c r="I2">
+        <v>-2.2048096785128701E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>12.9656115834541</v>
+      </c>
+      <c r="C3">
+        <v>12.9536256084592</v>
+      </c>
+      <c r="D3">
+        <v>13.1576481141692</v>
+      </c>
+      <c r="E3">
+        <v>13.166110885170699</v>
+      </c>
+      <c r="F3">
+        <v>13.249820410703</v>
+      </c>
+      <c r="G3">
+        <v>13.1162178775005</v>
+      </c>
+      <c r="H3">
+        <v>12.6251525411676</v>
+      </c>
+      <c r="I3">
+        <v>12.562161221242301</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-3.1047208024932799E-2</v>
+      </c>
+      <c r="C5">
+        <v>-3.0568703179830101E-2</v>
+      </c>
+      <c r="D5">
+        <v>-3.1349189046256297E-2</v>
+      </c>
+      <c r="E5">
+        <v>-3.18760449115187E-2</v>
+      </c>
+      <c r="F5">
+        <v>-3.0968246682876899E-2</v>
+      </c>
+      <c r="G5">
+        <v>-3.1234496132091599E-2</v>
+      </c>
+      <c r="H5">
+        <v>-2.4283229793940202E-2</v>
+      </c>
+      <c r="I5">
+        <v>-2.2048096785128701E-2</v>
+      </c>
+      <c r="K5">
+        <v>12.9656115834541</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>12.9536256084592</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-3.1047208024932799E-2</v>
+      </c>
+      <c r="K7">
+        <v>13.1576481141692</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-3.0568703179830101E-2</v>
+      </c>
+      <c r="K8">
+        <v>13.166110885170699</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-3.1349189046256297E-2</v>
+      </c>
+      <c r="K9">
+        <v>13.249820410703</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-3.18760449115187E-2</v>
+      </c>
+      <c r="K10">
+        <v>13.1162178775005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-3.0968246682876899E-2</v>
+      </c>
+      <c r="K11">
+        <v>12.6251525411676</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-3.1234496132091599E-2</v>
+      </c>
+      <c r="K12">
+        <v>12.562161221242301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-2.4283229793940202E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-2.2048096785128701E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D02A706-410E-4EC7-AE99-C38F4C9FFACF}">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>-3.0943976000000002E-2</v>
+      </c>
+      <c r="C2">
+        <v>-3.0872347000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>-3.3977519999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>-3.1004960000000002E-2</v>
+      </c>
+      <c r="F2">
+        <v>-3.1753211000000003E-2</v>
+      </c>
+      <c r="G2">
+        <v>-3.1000264E-2</v>
+      </c>
+      <c r="H2">
+        <v>-3.3170128E-2</v>
+      </c>
+      <c r="I2">
+        <v>-3.1047208E-2</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(B2:I2)</f>
+        <v>-3.1721201750000004E-2</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.P(B2:I2)</f>
+        <v>1.1182038738097742E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5.5</v>
+      </c>
+      <c r="B3">
+        <v>-3.3491186999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>-2.8937470999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>-2.8834619999999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>-3.1937129000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>-3.1937129000000002E-2</v>
+      </c>
+      <c r="G3">
+        <v>-3.3063389999999998E-2</v>
+      </c>
+      <c r="H3">
+        <v>-3.4782454999999997E-2</v>
+      </c>
+      <c r="I3">
+        <v>-3.0568702999999999E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="0">AVERAGE(B3:I3)</f>
+        <v>-3.1694010500000001E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="1">_xlfn.STDEV.P(B3:I3)</f>
+        <v>1.9938244419627315E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>-2.7056953000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>-2.8894125E-2</v>
+      </c>
+      <c r="D4">
+        <v>-3.2087233E-2</v>
+      </c>
+      <c r="E4">
+        <v>-3.1962456E-2</v>
+      </c>
+      <c r="F4">
+        <v>-3.3573965999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>-2.7968479000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>-2.6580187000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>-3.1349189E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-2.9934073500000002E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>2.4615348955511467E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6.5</v>
+      </c>
+      <c r="B5">
+        <v>-3.2067841999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>-3.4183568999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>-3.0087273000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>-3.3293888000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>-2.8352313000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>-2.6853203999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>-3.6285611000000002E-2</v>
+      </c>
+      <c r="I5">
+        <v>-3.1876044999999999E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-3.1624968125E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>2.897348175284619E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-2.6068599000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>-2.7042566000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>-2.8935319000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>-2.7367230999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>-2.7129753999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>-3.0823274000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>-2.9304916E-2</v>
+      </c>
+      <c r="I6">
+        <v>-3.0968247000000001E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-2.845498825E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1.7141905401978914E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.5</v>
+      </c>
+      <c r="B7">
+        <v>-2.6650698E-2</v>
+      </c>
+      <c r="C7">
+        <v>-2.4079153999999998E-2</v>
+      </c>
+      <c r="D7">
+        <v>-2.8132867999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>-3.0497271999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>-3.1093724E-2</v>
+      </c>
+      <c r="G7">
+        <v>-2.4746252E-2</v>
+      </c>
+      <c r="H7">
+        <v>-2.6771192999999999E-2</v>
+      </c>
+      <c r="I7">
+        <v>-3.1234496E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-2.7900707124999997E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>2.6338833792298702E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-2.3997154E-2</v>
+      </c>
+      <c r="C8">
+        <v>-2.6217114999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>-2.6993032E-2</v>
+      </c>
+      <c r="E8">
+        <v>-2.5142039000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>-2.3642168000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>-2.3642168000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>-2.5785465E-2</v>
+      </c>
+      <c r="I8">
+        <v>-2.4283229999999999E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-2.4962796374999999E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1.1877751131503106E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8.5</v>
+      </c>
+      <c r="B9">
+        <v>-2.4050038999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>-2.7033377000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>-2.6586334999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>-2.6146301E-2</v>
+      </c>
+      <c r="G9">
+        <v>-2.6670279000000002E-2</v>
+      </c>
+      <c r="H9">
+        <v>-2.4146404E-2</v>
+      </c>
+      <c r="I9">
+        <v>-2.2048096999999999E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-2.5240118857142856E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1.7194726173224853E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>-3.1721201750000004E-2</v>
+      </c>
+      <c r="L11">
+        <v>-3.1721201750000004E-2</v>
+      </c>
+      <c r="M11">
+        <v>-3.1694010500000001E-2</v>
+      </c>
+      <c r="N11">
+        <v>-2.9934073500000002E-2</v>
+      </c>
+      <c r="O11">
+        <v>-3.1624968125E-2</v>
+      </c>
+      <c r="P11">
+        <v>-2.845498825E-2</v>
+      </c>
+      <c r="Q11">
+        <v>-2.7900707124999997E-2</v>
+      </c>
+      <c r="R11">
+        <v>-2.4962796374999999E-2</v>
+      </c>
+      <c r="S11">
+        <v>-2.5240118857142856E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>-3.1694010500000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>-2.9934073500000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>-3.1624968125E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>-2.845498825E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>-2.7900707124999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>-2.4962796374999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>-2.5240118857142856E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A4D438-41A5-417D-A3CC-94995349BCD2}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>12.97420413</v>
+      </c>
+      <c r="C2">
+        <v>12.75866356</v>
+      </c>
+      <c r="D2">
+        <v>13.176062590000001</v>
+      </c>
+      <c r="E2">
+        <v>12.82102823</v>
+      </c>
+      <c r="F2">
+        <v>12.820139989999999</v>
+      </c>
+      <c r="G2">
+        <v>13.071840760000001</v>
+      </c>
+      <c r="H2">
+        <v>12.94502091</v>
+      </c>
+      <c r="I2">
+        <v>12.965611579999999</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(B2:I2)</f>
+        <v>12.94157146875</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.P(B2:I2)</f>
+        <v>0.13054810889333884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5.5</v>
+      </c>
+      <c r="B3">
+        <v>13.31551586</v>
+      </c>
+      <c r="C3">
+        <v>12.906721750000001</v>
+      </c>
+      <c r="D3">
+        <v>12.83377327</v>
+      </c>
+      <c r="E3">
+        <v>13.22038598</v>
+      </c>
+      <c r="G3">
+        <v>13.23693188</v>
+      </c>
+      <c r="H3">
+        <v>13.18733535</v>
+      </c>
+      <c r="I3">
+        <v>12.95362561</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="0">AVERAGE(B3:I3)</f>
+        <v>13.093469957142858</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="1">_xlfn.STDEV.P(B3:I3)</f>
+        <v>0.17593740718605869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>12.744744020000001</v>
+      </c>
+      <c r="C4">
+        <v>12.746620849999999</v>
+      </c>
+      <c r="D4">
+        <v>12.843883999999999</v>
+      </c>
+      <c r="E4">
+        <v>12.89971514</v>
+      </c>
+      <c r="F4">
+        <v>12.87698758</v>
+      </c>
+      <c r="G4">
+        <v>12.75183427</v>
+      </c>
+      <c r="H4">
+        <v>12.920072040000001</v>
+      </c>
+      <c r="I4">
+        <v>13.15764811</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>12.867688251250001</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.12830353031018904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6.5</v>
+      </c>
+      <c r="B5">
+        <v>13.21751093</v>
+      </c>
+      <c r="C5">
+        <v>13.484597389999999</v>
+      </c>
+      <c r="D5">
+        <v>13.11393855</v>
+      </c>
+      <c r="E5">
+        <v>13.109861009999999</v>
+      </c>
+      <c r="F5">
+        <v>12.78141157</v>
+      </c>
+      <c r="G5">
+        <v>12.969899740000001</v>
+      </c>
+      <c r="H5">
+        <v>13.367909450000001</v>
+      </c>
+      <c r="I5">
+        <v>13.166110890000001</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>13.15140494125</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.20477015726086012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>12.679610970000001</v>
+      </c>
+      <c r="C6">
+        <v>12.82924277</v>
+      </c>
+      <c r="D6">
+        <v>12.91410945</v>
+      </c>
+      <c r="E6">
+        <v>12.815118050000001</v>
+      </c>
+      <c r="F6">
+        <v>13.09461379</v>
+      </c>
+      <c r="G6">
+        <v>13.188539219999999</v>
+      </c>
+      <c r="H6">
+        <v>13.196144390000001</v>
+      </c>
+      <c r="I6">
+        <v>13.24982041</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>12.995899881249999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.19956604861674804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.5</v>
+      </c>
+      <c r="B7">
+        <v>12.774505720000001</v>
+      </c>
+      <c r="C7">
+        <v>12.57016063</v>
+      </c>
+      <c r="D7">
+        <v>12.4655936</v>
+      </c>
+      <c r="E7">
+        <v>13.124876710000001</v>
+      </c>
+      <c r="F7">
+        <v>13.114565799999999</v>
+      </c>
+      <c r="G7">
+        <v>12.57233289</v>
+      </c>
+      <c r="H7">
+        <v>12.72741583</v>
+      </c>
+      <c r="I7">
+        <v>13.116217880000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>12.808208632500001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.25650431844990801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>12.41093147</v>
+      </c>
+      <c r="C8">
+        <v>12.70751072</v>
+      </c>
+      <c r="D8">
+        <v>12.490216500000001</v>
+      </c>
+      <c r="E8">
+        <v>12.611434620000001</v>
+      </c>
+      <c r="F8">
+        <v>12.662466609999999</v>
+      </c>
+      <c r="G8">
+        <v>12.662466609999999</v>
+      </c>
+      <c r="H8">
+        <v>12.484492899999999</v>
+      </c>
+      <c r="I8">
+        <v>12.62515254</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>12.581833996249999</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>9.9138348387972072E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8.5</v>
+      </c>
+      <c r="B9">
+        <v>12.29938832</v>
+      </c>
+      <c r="C9">
+        <v>12.7003731</v>
+      </c>
+      <c r="D9">
+        <v>12.34165191</v>
+      </c>
+      <c r="E9">
+        <v>12.64410676</v>
+      </c>
+      <c r="G9">
+        <v>12.76835823</v>
+      </c>
+      <c r="H9">
+        <v>12.536887979999999</v>
+      </c>
+      <c r="I9">
+        <v>12.56216122</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>12.550418217142859</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.16286813458852883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>12.94157146875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>13.093469957142858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>12.867688251250001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>13.15140494125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>12.995899881249999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>12.808208632500001</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>12.581833996249999</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>12.550418217142859</v>
       </c>
     </row>
   </sheetData>
